--- a/example_files/eng/xlsx/2_results_consolidation/output/results_MC.xlsx
+++ b/example_files/eng/xlsx/2_results_consolidation/output/results_MC.xlsx
@@ -7,12 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P6" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P7" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P8" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P8" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P7" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P6" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,6 +430,774 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Taxon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Reads</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Detections in P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2811</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sus scrofa </t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2469</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rhea americana</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1859</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Coendou insidiosus</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>598</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Euphractus sexcinctus</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>598</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bradypus tridactylus</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>421</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bos taurus</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>389</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Canidae</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>202</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pitheciidae</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>197</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dasypus novemcinctus</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>72</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lycalopex vettulus</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>58</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tapirus terrestris</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>56</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Didelphis albiventris</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>52</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Taxon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Reads</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Detections in P8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rhea americana</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ateles belzebuth</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>529</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>382</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tamandua tetradactyla</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>273</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lycalopex vettulus</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>131</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alouatta guariba</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>77</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Didelphis sp.</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>48</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sus scrofa </t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euphractus sexcinctus</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>23</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Taxon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Reads</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Detections in P2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>958</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Coendou insidiosus</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>183</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cingulata</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>125</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bos taurus</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>101</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Didelphis albiventris</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>69</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ateles belzebuth</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>49</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cavia porcellus</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Myocastor coypus</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sardinella sp.</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>24</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Taxon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Reads</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Detections in P7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rhea americana</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>705</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Coendou insidiosus</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>571</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ateles belzebuth</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>219</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lycalopex vettulus</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>209</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Puma concolor</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>66</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sylvilagus brasiliensis</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>64</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alouatta guariba</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>62</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mazama gouazoupira</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -844,7 +1612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1102,772 +1870,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Taxon</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Reads</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Detections in P7</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Rhea americana</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>705</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Coendou insidiosus</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>571</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ateles belzebuth</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>219</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Lycalopex vettulus</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>209</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Puma concolor</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>66</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sylvilagus brasiliensis</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>64</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Alouatta guariba</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>62</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Mazama gouazoupira</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>16</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Taxon</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Reads</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Detections in P3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2811</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sus scrofa </t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2469</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Rhea americana</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1859</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Coendou insidiosus</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>598</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Euphractus sexcinctus</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>598</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bradypus tridactylus</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>421</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bos taurus</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>389</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Canidae</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>202</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Pitheciidae</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>197</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Dasypus novemcinctus</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>72</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Lycalopex vettulus</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>58</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Tapirus terrestris</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>56</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Didelphis albiventris</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>52</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Taxon</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Reads</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Detections in P8</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Rhea americana</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1851</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ateles belzebuth</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>529</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>382</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Tamandua tetradactyla</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>273</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Lycalopex vettulus</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>131</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Alouatta guariba</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>77</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Didelphis sp.</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>48</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sus scrofa </t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Euphractus sexcinctus</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>23</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Taxon</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Reads</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Detections in P2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>958</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Coendou insidiosus</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>183</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cingulata</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>125</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bos taurus</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>101</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Didelphis albiventris</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>69</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ateles belzebuth</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>49</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cavia porcellus</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>37</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Myocastor coypus</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>35</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Sardinella sp.</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>24</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>